--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/C/20/seed3/result_data_RandomForest.xlsx
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-10.82689999999999</v>
+        <v>-10.96189999999999</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -604,7 +604,7 @@
         <v>9.35</v>
       </c>
       <c r="C10" t="n">
-        <v>-12.4641</v>
+        <v>-12.4152</v>
       </c>
       <c r="D10" t="n">
         <v>-8.93</v>
@@ -638,7 +638,7 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.33740000000001</v>
+        <v>-14.4007</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.2724</v>
+        <v>-14.248</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -859,7 +859,7 @@
         <v>5.09</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.74309999999999</v>
+        <v>-10.85839999999999</v>
       </c>
       <c r="D25" t="n">
         <v>-7.71</v>
